--- a/inst/extdata/compass.xlsx
+++ b/inst/extdata/compass.xlsx
@@ -646,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,268 +673,259 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4221,9 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4244,789 +4233,789 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="46"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="12"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="44" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="44" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="33" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="16" t="s">
+      <c r="H3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
       <c r="Q3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="20" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="46"/>
+      <c r="W3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="35" t="s">
+      <c r="I4" s="64"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="21" t="s">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="46"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="97" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="51" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="51" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="98" t="s">
+      <c r="W6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="49"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="60" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="60" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="60" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="61" t="s">
+      <c r="W7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="62" t="s">
+      <c r="X7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="49"/>
+      <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="49"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="46"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="12"/>
       <c r="Z9"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="46"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="12"/>
       <c r="Z10"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="39" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="33" t="s">
+      <c r="H11" s="66"/>
+      <c r="I11" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="30" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="30" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="46"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="12"/>
       <c r="Z11"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="16" t="s">
+      <c r="H12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="12" t="s">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="16" t="s">
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="46"/>
+      <c r="Y12" s="12"/>
       <c r="Z12"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="21" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="35" t="s">
+      <c r="I13" s="64"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="35" t="s">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="46"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="12"/>
       <c r="Z13"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="46"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="12"/>
       <c r="Z14"/>
     </row>
     <row r="15" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="69" t="s">
+      <c r="C15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="63" t="s">
+      <c r="I15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="69" t="s">
+      <c r="M15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="63" t="s">
+      <c r="N15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="63" t="s">
+      <c r="R15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="16"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="W15" s="69" t="s">
+      <c r="W15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="46"/>
+      <c r="X15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="12"/>
       <c r="Z15"/>
     </row>
     <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="92" t="s">
+      <c r="C16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="95" t="s">
+      <c r="I16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="61" t="s">
+      <c r="M16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="66" t="s">
+      <c r="N16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="95" t="s">
+      <c r="R16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="W16" s="61" t="s">
+      <c r="W16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="46"/>
+      <c r="X16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="12"/>
       <c r="Z16"/>
     </row>
     <row r="17" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="68" t="s">
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="70" t="s">
+      <c r="I17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="67" t="s">
+      <c r="N17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="50"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="70" t="s">
+      <c r="R17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="46"/>
+      <c r="X17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="12"/>
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="46"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="12"/>
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
@@ -5040,31 +5029,31 @@
       <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="39" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="33" t="s">
+      <c r="H20" s="66"/>
+      <c r="I20" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="41" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="46"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="12"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
@@ -5078,35 +5067,35 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="20" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="16" t="s">
+      <c r="H21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="46"/>
+      <c r="O21" s="12"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -5120,27 +5109,27 @@
       <c r="Z21"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="42" t="s">
+      <c r="I22" s="48"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="46"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="12"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
@@ -5154,21 +5143,21 @@
       <c r="Z22"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="46"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="12"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
@@ -5182,39 +5171,39 @@
       <c r="Z23"/>
     </row>
     <row r="24" spans="1:26" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="46"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="12"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
@@ -5228,39 +5217,39 @@
       <c r="Z24"/>
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="60" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="62" t="s">
+      <c r="I25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="60" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="M25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="62" t="s">
+      <c r="N25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="46"/>
+      <c r="O25" s="12"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
@@ -5274,35 +5263,35 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="89" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="72" t="s">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="90" t="s">
+      <c r="M26" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="88"/>
-      <c r="O26" s="46"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="12"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
@@ -5316,21 +5305,21 @@
       <c r="Z26"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="46"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="12"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
@@ -5344,21 +5333,21 @@
       <c r="Z27"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="46"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
@@ -5372,31 +5361,31 @@
       <c r="Z28"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="39" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="38" t="s">
+      <c r="H29" s="66"/>
+      <c r="I29" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="41" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="40"/>
-      <c r="O29" s="46"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="12"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
@@ -5410,200 +5399,200 @@
       <c r="Z29"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="20" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="25" t="s">
+      <c r="H30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="85"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="46"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="21" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="35" t="s">
+      <c r="I31" s="64"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="46"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="46"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="75" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="69" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="78" t="s">
+      <c r="I33" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="69" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="87"/>
-      <c r="O33" s="46"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="76" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="61" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="86" t="s">
+      <c r="I34" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="61" t="s">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="85" t="s">
+      <c r="N34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="46"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="77" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="70" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="84"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="70" t="s">
+      <c r="I35" s="83"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="77" t="s">
+      <c r="N35" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="46"/>
+      <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="46"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -5611,13 +5600,13 @@
       <c r="O37"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
@@ -5625,17 +5614,17 @@
       <c r="O38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F39" s="46"/>
-      <c r="G39" s="79" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="13" t="s">
+      <c r="H39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="46"/>
+      <c r="J39" s="12"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -5643,13 +5632,13 @@
       <c r="O39"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -5657,11 +5646,11 @@
       <c r="O40"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
@@ -5669,93 +5658,94 @@
       <c r="O41"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F42" s="46"/>
-      <c r="G42" s="44" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="38" t="s">
+      <c r="H42" s="44"/>
+      <c r="I42" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="46"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F43" s="46"/>
-      <c r="G43" s="82" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="46"/>
+      <c r="H43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="85"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F44" s="46"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="27" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="46"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F46" s="46"/>
-      <c r="G46" s="80" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="46"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F47" s="46"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="25" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="46"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F48" s="46"/>
-      <c r="G48" s="42" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="46"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F49" s="46"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="46"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="G2:H2"/>
@@ -5763,19 +5753,29 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="N21:N22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L29:L30"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="N21:N22"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:I30"/>
@@ -5783,17 +5783,6 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="X12:X13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/inst/extdata/compass.xlsx
+++ b/inst/extdata/compass.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
   <si>
     <t>N</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>subheader</t>
+  </si>
+  <si>
+    <t>ABOVE</t>
+  </si>
+  <si>
+    <t>BELOW</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
   </si>
 </sst>
 </file>
@@ -156,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -642,11 +654,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,9 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,46 +848,136 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,124 +986,79 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,15 +1092,15 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4"/>
+        <xdr:cNvPr id="14" name="Group 13"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5795439" y="7923643"/>
-          <a:ext cx="1153049" cy="883749"/>
-          <a:chOff x="6418408" y="8490014"/>
-          <a:chExt cx="1151403" cy="883749"/>
+          <a:off x="6494846" y="7952218"/>
+          <a:ext cx="1340828" cy="883749"/>
+          <a:chOff x="6515142" y="7924773"/>
+          <a:chExt cx="1344517" cy="883749"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -977,8 +1110,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipH="1">
-            <a:off x="6418409" y="8831762"/>
-            <a:ext cx="829305" cy="161506"/>
+            <a:off x="6515143" y="8266521"/>
+            <a:ext cx="967601" cy="161506"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -1028,8 +1161,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipH="1">
-            <a:off x="6418408" y="8490014"/>
-            <a:ext cx="1151403" cy="325482"/>
+            <a:off x="6515142" y="7924773"/>
+            <a:ext cx="1344517" cy="325482"/>
           </a:xfrm>
           <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
@@ -1079,8 +1212,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipH="1">
-            <a:off x="6418409" y="9212257"/>
-            <a:ext cx="829305" cy="161506"/>
+            <a:off x="6515143" y="8647016"/>
+            <a:ext cx="967601" cy="161506"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -1130,8 +1263,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>671080</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1139,189 +1272,173 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>344157</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Bent-Up Arrow 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3649807" y="9228426"/>
-          <a:ext cx="1156512" cy="320345"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3691866" y="8130540"/>
+          <a:ext cx="1340826" cy="881367"/>
+          <a:chOff x="3711460" y="8115300"/>
+          <a:chExt cx="1347358" cy="881367"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="Bent-Up Arrow 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1" flipV="1">
+            <a:off x="3711460" y="8676322"/>
+            <a:ext cx="1347358" cy="320345"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="Right Arrow 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1" flipV="1">
+            <a:off x="3711461" y="8495795"/>
+            <a:ext cx="1024868" cy="161506"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>671081</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>224285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>110989</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4791</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Right Arrow 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3642881" y="9053960"/>
-          <a:ext cx="830558" cy="161506"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Right Arrow 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1" flipV="1">
+            <a:off x="3711461" y="8115300"/>
+            <a:ext cx="1024868" cy="161506"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>671081</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>224790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>110989</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>5296</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Right Arrow 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3642881" y="8673465"/>
-          <a:ext cx="830558" cy="161506"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1344,8 +1461,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="861671" y="8101965"/>
-          <a:ext cx="830007" cy="923050"/>
+          <a:off x="888885" y="8130540"/>
+          <a:ext cx="1017786" cy="923050"/>
           <a:chOff x="861671" y="8671839"/>
           <a:chExt cx="832771" cy="923050"/>
         </a:xfrm>
@@ -1521,15 +1638,15 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="120" name="Group 119"/>
+        <xdr:cNvPr id="10" name="Group 9"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2910896" y="3312314"/>
-          <a:ext cx="1153048" cy="883749"/>
-          <a:chOff x="3231726" y="3502117"/>
-          <a:chExt cx="1156300" cy="883749"/>
+          <a:off x="3274207" y="3324560"/>
+          <a:ext cx="1340826" cy="883749"/>
+          <a:chOff x="3293801" y="3318029"/>
+          <a:chExt cx="1347358" cy="883749"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1539,8 +1656,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000">
-            <a:off x="3555349" y="3843865"/>
-            <a:ext cx="832676" cy="161506"/>
+            <a:off x="3670497" y="3659777"/>
+            <a:ext cx="970661" cy="161506"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -1590,8 +1707,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000">
-            <a:off x="3231726" y="3502117"/>
-            <a:ext cx="1156300" cy="340524"/>
+            <a:off x="3293801" y="3318029"/>
+            <a:ext cx="1347358" cy="340524"/>
           </a:xfrm>
           <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
@@ -1641,8 +1758,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000">
-            <a:off x="3555349" y="4224360"/>
-            <a:ext cx="832676" cy="161506"/>
+            <a:off x="3670497" y="4040272"/>
+            <a:ext cx="970661" cy="161506"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -1708,8 +1825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="5377780" y="3490636"/>
-          <a:ext cx="1153049" cy="883749"/>
+          <a:off x="6077187" y="3502882"/>
+          <a:ext cx="1340828" cy="883749"/>
           <a:chOff x="3649475" y="8671839"/>
           <a:chExt cx="1156120" cy="883749"/>
         </a:xfrm>
@@ -1890,8 +2007,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="770592" y="3490636"/>
-          <a:ext cx="830993" cy="923050"/>
+          <a:off x="797806" y="3502882"/>
+          <a:ext cx="1018772" cy="923050"/>
           <a:chOff x="861671" y="8671839"/>
           <a:chExt cx="832771" cy="923050"/>
         </a:xfrm>
@@ -2055,7 +2172,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>347815</xdr:colOff>
+      <xdr:colOff>347816</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>135730</xdr:rowOff>
     </xdr:from>
@@ -2067,15 +2184,15 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="138" name="Group 137"/>
+        <xdr:cNvPr id="2" name="Group 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3005290" y="1097755"/>
-          <a:ext cx="1381411" cy="657228"/>
-          <a:chOff x="3253872" y="1086033"/>
-          <a:chExt cx="1517005" cy="657228"/>
+          <a:off x="3368602" y="1101837"/>
+          <a:ext cx="1569188" cy="657228"/>
+          <a:chOff x="3372584" y="1097523"/>
+          <a:chExt cx="1570516" cy="657228"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2085,8 +2202,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="3770355" y="1403906"/>
-            <a:ext cx="517868" cy="160841"/>
+            <a:off x="3916434" y="1412485"/>
+            <a:ext cx="517868" cy="166662"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -2136,8 +2253,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="4272702" y="1245086"/>
-            <a:ext cx="657228" cy="339122"/>
+            <a:off x="4439137" y="1250787"/>
+            <a:ext cx="657228" cy="350699"/>
           </a:xfrm>
           <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
@@ -2187,8 +2304,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="3075359" y="1403906"/>
-            <a:ext cx="517868" cy="160841"/>
+            <a:off x="3196981" y="1412485"/>
+            <a:ext cx="517868" cy="166662"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -2243,21 +2360,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>440265</xdr:colOff>
+      <xdr:colOff>440266</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>30958</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="139" name="Group 138"/>
+        <xdr:cNvPr id="4" name="Group 3"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5578293" y="1097754"/>
-          <a:ext cx="1377072" cy="657229"/>
-          <a:chOff x="6079100" y="1086032"/>
-          <a:chExt cx="1512242" cy="657229"/>
+          <a:off x="6277700" y="1101836"/>
+          <a:ext cx="1564852" cy="657229"/>
+          <a:chOff x="6285002" y="1097522"/>
+          <a:chExt cx="1566179" cy="657229"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2267,8 +2384,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1">
-            <a:off x="6554609" y="1403906"/>
-            <a:ext cx="517868" cy="160841"/>
+            <a:off x="6786706" y="1412528"/>
+            <a:ext cx="517868" cy="166578"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -2318,8 +2435,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1">
-            <a:off x="5920047" y="1245085"/>
-            <a:ext cx="657228" cy="339122"/>
+            <a:off x="6131997" y="1250527"/>
+            <a:ext cx="657228" cy="351217"/>
           </a:xfrm>
           <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
@@ -2369,8 +2486,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1">
-            <a:off x="7251988" y="1403906"/>
-            <a:ext cx="517868" cy="160841"/>
+            <a:off x="7508958" y="1412528"/>
+            <a:ext cx="517868" cy="166578"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
             <a:avLst/>
@@ -2436,8 +2553,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="479165" y="1230631"/>
-          <a:ext cx="1537703" cy="517868"/>
+          <a:off x="506379" y="1234713"/>
+          <a:ext cx="1725482" cy="517868"/>
           <a:chOff x="479165" y="1228433"/>
           <a:chExt cx="1539168" cy="517868"/>
         </a:xfrm>
@@ -2600,332 +2717,184 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>277679</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>359086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438365</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="Right Arrow 140"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3766213" y="6490802"/>
-          <a:ext cx="517868" cy="160686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>319617</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>359084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>658412</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439739</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>254312</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="Bent-Up Arrow 141"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3132201" y="6471425"/>
-          <a:ext cx="657228" cy="338795"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3340403" y="5951620"/>
+          <a:ext cx="1698550" cy="657228"/>
+          <a:chOff x="3344385" y="5930047"/>
+          <a:chExt cx="1699878" cy="657228"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="Right Arrow 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3913734" y="6108640"/>
+            <a:ext cx="517868" cy="160686"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="Bent-Up Arrow 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3185169" y="6089263"/>
+            <a:ext cx="657228" cy="338795"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>279053</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>359086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>439739</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="Right Arrow 142"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4462912" y="6490802"/>
-          <a:ext cx="517868" cy="160686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="Right Arrow 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4704986" y="6108640"/>
+            <a:ext cx="517868" cy="160686"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>278657</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>353343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>439342</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>109211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="Right Arrow 144"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6548491" y="6485059"/>
-          <a:ext cx="517868" cy="160685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>353343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>402168</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>248571</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="Bent-Up Arrow 145"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7047908" y="6465685"/>
-          <a:ext cx="657228" cy="338793"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2936,128 +2905,178 @@
       <xdr:rowOff>353343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>440345</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402168</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>109211</xdr:rowOff>
+      <xdr:rowOff>248571</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="Right Arrow 146"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5854169" y="6485059"/>
-          <a:ext cx="517868" cy="160685"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6103517" y="5945879"/>
+          <a:ext cx="1700937" cy="657228"/>
+          <a:chOff x="6110819" y="5924306"/>
+          <a:chExt cx="1702264" cy="657228"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="Right Arrow 144"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="6721103" y="6102897"/>
+            <a:ext cx="517868" cy="160685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="Bent-Up Arrow 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7315073" y="6083523"/>
+            <a:ext cx="657228" cy="338793"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>278156</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>359085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438845</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114953</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="Right Arrow 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="985392" y="6109799"/>
-          <a:ext cx="517868" cy="160689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="Right Arrow 146"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5932228" y="6102897"/>
+            <a:ext cx="517868" cy="160685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3068,139 +3087,189 @@
       <xdr:rowOff>359085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>439830</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114953</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="Right Arrow 149"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="291052" y="6109799"/>
-          <a:ext cx="517868" cy="160689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>278755</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>359085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>439444</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114953</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="Right Arrow 150"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="1681316" y="6109799"/>
-          <a:ext cx="517868" cy="160689"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="496855" y="5951621"/>
+          <a:ext cx="1738732" cy="517868"/>
+          <a:chOff x="495917" y="5916430"/>
+          <a:chExt cx="1736855" cy="517868"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="Right Arrow 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="1104619" y="6095019"/>
+            <a:ext cx="517868" cy="160689"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="Right Arrow 149"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="317328" y="6095019"/>
+            <a:ext cx="517868" cy="160689"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
             <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="Right Arrow 150"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="1893494" y="6095019"/>
+            <a:ext cx="517868" cy="160689"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>347815</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>135730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>338576</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>30958</xdr:rowOff>
@@ -3212,8 +3281,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10406215" y="1097755"/>
-          <a:ext cx="1381411" cy="657228"/>
+          <a:off x="14363172" y="1101837"/>
+          <a:ext cx="1569190" cy="657228"/>
           <a:chOff x="3253872" y="1086033"/>
           <a:chExt cx="1517005" cy="657228"/>
         </a:xfrm>
@@ -3376,13 +3445,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>288665</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>268606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>435718</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>24474</xdr:rowOff>
@@ -3394,8 +3463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7880090" y="1230631"/>
-          <a:ext cx="1537703" cy="517868"/>
+          <a:off x="11500951" y="1234713"/>
+          <a:ext cx="1725481" cy="517868"/>
           <a:chOff x="479165" y="1228433"/>
           <a:chExt cx="1539168" cy="517868"/>
         </a:xfrm>
@@ -3558,13 +3627,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>580092</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>223561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>20435</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>3611</xdr:rowOff>
@@ -3576,8 +3645,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="8171517" y="3490636"/>
-          <a:ext cx="830993" cy="923050"/>
+          <a:off x="11792378" y="3502882"/>
+          <a:ext cx="1018771" cy="923050"/>
           <a:chOff x="861671" y="8671839"/>
           <a:chExt cx="832771" cy="923050"/>
         </a:xfrm>
@@ -3740,13 +3809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>253330</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>223561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>15729</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>345310</xdr:rowOff>
@@ -3758,8 +3827,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="10311730" y="3490636"/>
-          <a:ext cx="1153049" cy="883749"/>
+          <a:off x="14268687" y="3502882"/>
+          <a:ext cx="1340828" cy="883749"/>
           <a:chOff x="3649475" y="8671839"/>
           <a:chExt cx="1156120" cy="883749"/>
         </a:xfrm>
@@ -3877,6 +3946,734 @@
             <a:ext cx="832771" cy="161506"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452906</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>337644</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31191</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8862120" y="1100918"/>
+          <a:ext cx="1463167" cy="658380"/>
+          <a:chOff x="8872077" y="1096604"/>
+          <a:chExt cx="1464494" cy="658380"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="Bent-Up Arrow 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="9832259" y="1250672"/>
+            <a:ext cx="657228" cy="351396"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="Right Arrow 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1">
+            <a:off x="9373781" y="1411610"/>
+            <a:ext cx="517868" cy="166578"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="Bent-Up Arrow 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1">
+            <a:off x="8719072" y="1249609"/>
+            <a:ext cx="657228" cy="351217"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322414</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>353343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>402168</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>248572</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Group 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8731628" y="5945879"/>
+          <a:ext cx="1658183" cy="657229"/>
+          <a:chOff x="8717552" y="5910688"/>
+          <a:chExt cx="1656306" cy="657229"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Right Arrow 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="9283475" y="6089165"/>
+            <a:ext cx="517868" cy="160914"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="Bent-Up Arrow 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="9875607" y="6069664"/>
+            <a:ext cx="657228" cy="339275"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="Bent-Up Arrow 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="8558577" y="6069664"/>
+            <a:ext cx="657228" cy="339277"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215230</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15729</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>345310</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8624444" y="3325990"/>
+          <a:ext cx="1378928" cy="1060641"/>
+          <a:chOff x="8673430" y="3319459"/>
+          <a:chExt cx="1385459" cy="1060641"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Bent-Up Arrow 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="8673430" y="4054618"/>
+            <a:ext cx="1385459" cy="325482"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="Right Arrow 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="9060521" y="3876846"/>
+            <a:ext cx="998367" cy="161506"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="Bent-Up Arrow 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="8707811" y="3319459"/>
+            <a:ext cx="1347358" cy="340524"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>667916</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431736</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>343811</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9077130" y="7952218"/>
+          <a:ext cx="1342249" cy="1059343"/>
+          <a:chOff x="9104806" y="7924773"/>
+          <a:chExt cx="1345938" cy="1059343"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="Bent-Up Arrow 116"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1" flipV="1">
+            <a:off x="9104807" y="8663771"/>
+            <a:ext cx="1345937" cy="320345"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="Right Arrow 118"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="9104807" y="8266521"/>
+            <a:ext cx="967601" cy="161506"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="Bent-Up Arrow 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
+            <a:off x="9104806" y="7924773"/>
+            <a:ext cx="1344517" cy="325482"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
@@ -4210,816 +5007,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="A1:S36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" style="1"/>
-    <col min="5" max="6" width="2.85546875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" style="1"/>
-    <col min="10" max="11" width="2.85546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.42578125" style="1"/>
-    <col min="15" max="16" width="2.85546875" style="1" customWidth="1"/>
-    <col min="17" max="19" width="10.42578125" style="1"/>
-    <col min="20" max="21" width="2.85546875" style="1" customWidth="1"/>
-    <col min="22" max="24" width="10.42578125" style="1"/>
-    <col min="25" max="25" width="2.85546875" style="1" customWidth="1"/>
-    <col min="26" max="28" width="10.42578125" style="1"/>
-    <col min="29" max="29" width="2.85546875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.42578125" style="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.375" style="1"/>
+    <col min="5" max="6" width="2.875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.375" style="1"/>
+    <col min="10" max="11" width="2.875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="10.375" style="1"/>
+    <col min="15" max="15" width="2.875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.375" style="1"/>
+    <col min="19" max="20" width="2.875" style="1" customWidth="1"/>
+    <col min="21" max="23" width="10.375" style="1"/>
+    <col min="24" max="25" width="2.875" style="1" customWidth="1"/>
+    <col min="26" max="28" width="10.375" style="1"/>
+    <col min="29" max="29" width="2.875" style="1" customWidth="1"/>
+    <col min="30" max="32" width="10.375" style="1"/>
+    <col min="33" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="12"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="11"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="43" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="55" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="8" t="s">
+      <c r="N2" s="79"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="43" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="61" t="s">
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="12"/>
+      <c r="AC2" s="11"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="57" t="s">
+      <c r="H3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="6" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="V3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="59" t="s">
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="12"/>
+      <c r="AA3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="11"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="63" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="41" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="9" t="s">
+      <c r="M4" s="81"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="63" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="12"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="11"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
     </row>
-    <row r="6" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:33" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="38" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="17" t="s">
+      <c r="O6" s="11"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
       <c r="V6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="15"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26" t="s">
+    <row r="7" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="26" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="26" t="s">
+      <c r="O7" s="11"/>
+      <c r="P7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="27" t="s">
+      <c r="Q7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="28" t="s">
+      <c r="R7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="15"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+    <row r="8" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="Q8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="R8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="V8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="W8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="15"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="14"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9"/>
+    <row r="9" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10"/>
     </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="65" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="61" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="49" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="10" t="s">
+      <c r="N11" s="71"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="49" t="s">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="67" t="s">
+      <c r="AA11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11"/>
     </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="57" t="s">
+      <c r="H12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="63"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="36" t="s">
+      <c r="O12" s="11"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="92"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="7" t="s">
+      <c r="V12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="57" t="s">
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12"/>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="63" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="41" t="s">
+      <c r="I13" s="67"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="9" t="s">
+      <c r="M13" s="81"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="92"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="41" t="s">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14"/>
     </row>
-    <row r="15" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="69" t="s">
+    <row r="15" spans="1:33" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="32" t="s">
+      <c r="C15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="69" t="s">
+      <c r="I15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="69" t="s">
+      <c r="N15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="69" t="s">
+      <c r="V15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="W15" s="32" t="s">
+      <c r="AA15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="12"/>
-      <c r="Z15"/>
+      <c r="AB15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="11"/>
+      <c r="AD15"/>
     </row>
-    <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="70" t="s">
+    <row r="16" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="73" t="s">
+      <c r="C16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="75" t="s">
+      <c r="I16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="70" t="s">
+      <c r="N16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="110" t="s">
         <v>13</v>
       </c>
+      <c r="Q16" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="R16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="75" t="s">
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W16" s="27" t="s">
+      <c r="V16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="12"/>
-      <c r="Z16"/>
+      <c r="AB16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="11"/>
+      <c r="AD16"/>
     </row>
-    <row r="17" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="71" t="s">
+    <row r="17" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="74" t="s">
+      <c r="C17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="33" t="s">
+      <c r="I17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="71" t="s">
+      <c r="N17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="33" t="s">
+      <c r="V17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17"/>
+      <c r="AB17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="11"/>
+      <c r="AD17"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18"/>
+    <row r="18" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
@@ -5027,37 +5951,43 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="65" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="61" t="s">
+      <c r="H20" s="87"/>
+      <c r="I20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="55" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="67" t="s">
+      <c r="M20" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="12"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="11"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
@@ -5065,41 +5995,51 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="59" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="57" t="s">
+      <c r="H21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="11"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
@@ -5107,33 +6047,39 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="47" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="53" t="s">
+      <c r="I22" s="91"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="12"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="11"/>
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
@@ -5141,27 +6087,31 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="12"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="11"/>
       <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
@@ -5169,45 +6119,55 @@
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
     </row>
-    <row r="24" spans="1:26" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+    <row r="24" spans="1:30" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="11"/>
       <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
@@ -5215,45 +6175,55 @@
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
     </row>
-    <row r="25" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="26" t="s">
+    <row r="25" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="26" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="11"/>
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
@@ -5261,41 +6231,47 @@
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
     </row>
-    <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="31" t="s">
+    <row r="26" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="31" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="95" t="s">
+      <c r="M26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="12"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="61"/>
+      <c r="S26" s="11"/>
       <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
@@ -5303,27 +6279,31 @@
       <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="12"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
+    <row r="27" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="11"/>
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
@@ -5331,27 +6311,31 @@
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="12"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="11"/>
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
@@ -5359,37 +6343,47 @@
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="65" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="84" t="s">
+      <c r="H29" s="87"/>
+      <c r="I29" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="55" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="12"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="11"/>
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
@@ -5397,362 +6391,435 @@
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="78" t="s">
+      <c r="C30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="59" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="86" t="s">
+      <c r="H30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="89"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="12"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="103"/>
+      <c r="S30" s="11"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="63" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="41" t="s">
+      <c r="I31" s="67"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="42"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="12"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="103"/>
+      <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="12"/>
+    <row r="32" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="79" t="s">
+    <row r="33" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="81" t="s">
+      <c r="I33" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="32" t="s">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="88"/>
-      <c r="O33" s="12"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="55"/>
+      <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="80" t="s">
+    <row r="34" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="27" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="27" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="89" t="s">
+      <c r="N34" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="12"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="35" t="s">
+    <row r="35" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="33" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="33" t="s">
+      <c r="I35" s="54"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="35" t="s">
+      <c r="N35" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="12"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="105"/>
+      <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="12"/>
+    <row r="36" spans="1:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F39" s="12"/>
-      <c r="G39" s="36" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F39" s="11"/>
+      <c r="G39" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="78" t="s">
+      <c r="H39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="11"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F42" s="12"/>
-      <c r="G42" s="43" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F42" s="11"/>
+      <c r="G42" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="84" t="s">
+      <c r="H42" s="77"/>
+      <c r="I42" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="12"/>
+      <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F43" s="12"/>
-      <c r="G43" s="45" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F43" s="11"/>
+      <c r="G43" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="85"/>
-      <c r="J43" s="12"/>
+      <c r="H43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="89"/>
+      <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F44" s="12"/>
-      <c r="G44" s="46"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="90" t="s">
         <v>5</v>
       </c>
       <c r="I44" s="91"/>
-      <c r="J44" s="12"/>
+      <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F46" s="12"/>
-      <c r="G46" s="49" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F46" s="11"/>
+      <c r="G46" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="12"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F47" s="12"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="86" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F47" s="11"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F48" s="12"/>
-      <c r="G48" s="53" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F48" s="11"/>
+      <c r="G48" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="54"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="12"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F49" s="12"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="L4:M4"/>
+  <mergeCells count="56">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="I47:I48"/>
@@ -5769,28 +6836,34 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L29:L30"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AB12:AB13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToWidth="2" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="36" max="16383" man="1"/>
   </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="1048575" man="1"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="17" max="1048575" man="1"/>
+    <brk id="20" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
